--- a/Covid-19 Resource Planning Andhra Pradesh Data Input Template v3.0.xlsx
+++ b/Covid-19 Resource Planning Andhra Pradesh Data Input Template v3.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suneet.Roy\Desktop\COVID-EY\templates\EYIP_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1079FC-DBB3-4CEA-A789-4B9649E9C121}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EB2F7E-AB2E-4B9F-BD70-B411EF872C99}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CBC7EA8E-4C05-4DA6-9475-00AFA9545C39}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>District</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>Guntur</t>
-  </si>
-  <si>
-    <t>Kadapa</t>
   </si>
   <si>
     <t>Krishna</t>
@@ -712,7 +709,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" w="9525">
+              <a14:hiddenLine xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -6750,9 +6747,7 @@
   </sheetPr>
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6851,13 +6846,13 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="48">
         <v>43911</v>
@@ -7059,7 +7054,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -7131,13 +7126,13 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E44" s="48">
         <v>43911</v>
@@ -7408,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
@@ -7528,7 +7523,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="20"/>
@@ -7547,7 +7542,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="20"/>
@@ -7566,7 +7561,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="20"/>
@@ -7585,7 +7580,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="20"/>
@@ -7604,7 +7599,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="20"/>
@@ -7623,7 +7618,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="20"/>
@@ -7642,7 +7637,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="20"/>
@@ -7661,7 +7656,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="20"/>
@@ -7680,7 +7675,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="20"/>
@@ -10068,8 +10063,8 @@
   </sheetPr>
   <dimension ref="A1:Q276"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10097,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="23" t="s">
         <v>1</v>
@@ -10231,7 +10226,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="20"/>
@@ -10252,7 +10247,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="20"/>
@@ -10273,7 +10268,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="20"/>
@@ -10294,7 +10289,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="20"/>
@@ -10315,7 +10310,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="20"/>
@@ -10336,7 +10331,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="20"/>
@@ -10357,7 +10352,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="20"/>
@@ -10378,7 +10373,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="20"/>
@@ -10399,7 +10394,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="20"/>
@@ -12782,21 +12777,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F869FB7CDC4CB94298D700C417F43B14" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5ddc1ed8db2cb07ec0345f40e9965cba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b33d107c-a448-497d-b606-00e85b1f002a" xmlns:ns4="78603c86-20b2-473c-8048-4163dd4c73c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185c07f72270aa66c93c84fd1258fc1d" ns3:_="" ns4:_="">
     <xsd:import namespace="b33d107c-a448-497d-b606-00e85b1f002a"/>
@@ -13019,32 +12999,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40EBDB4E-4287-4E57-BFC9-B7BCCD9C2EA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13061,4 +13031,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77744988-55CF-42DB-AA3F-F428D09E4811}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{993809F6-BCE1-4108-A471-1792A410B738}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78603c86-20b2-473c-8048-4163dd4c73c8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b33d107c-a448-497d-b606-00e85b1f002a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>